--- a/Economics/Ljung_Box/Log-Prices/Japan_gvt_10y.xlsx
+++ b/Economics/Ljung_Box/Log-Prices/Japan_gvt_10y.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1029536105603861</v>
+        <v>0.03479942379191779</v>
+      </c>
+      <c r="C2">
+        <v>0.8520165803621069</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.712009453250565</v>
+        <v>0.183815420042631</v>
+      </c>
+      <c r="C3">
+        <v>0.9121893315944199</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.952072001723135</v>
+        <v>0.1914860391547266</v>
       </c>
       <c r="C4">
-        <v>0.1623637476768323</v>
+        <v>0.9789518972364822</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.15879993266694</v>
+        <v>0.1990905049060107</v>
       </c>
       <c r="C5">
-        <v>0.3397993555396129</v>
+        <v>0.9953622228699643</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.00256062667819</v>
+        <v>0.199183386456444</v>
       </c>
       <c r="C6">
-        <v>0.3912305464698519</v>
+        <v>0.9991226247282649</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.063141897951572</v>
+        <v>0.2743833698076784</v>
       </c>
       <c r="C7">
-        <v>0.5473149252652572</v>
+        <v>0.9996115810958157</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.175410395987041</v>
+        <v>0.4893793192936935</v>
       </c>
       <c r="C8">
-        <v>0.6729634484763402</v>
+        <v>0.9994844482100189</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5.131167939739909</v>
+        <v>0.7974581766016746</v>
       </c>
       <c r="C9">
-        <v>0.5271034276990729</v>
+        <v>0.9992327982682073</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.910594428478111</v>
+        <v>2.703242518014204</v>
       </c>
       <c r="C10">
-        <v>0.5502268189930738</v>
+        <v>0.9749089817226573</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.397318534900482</v>
+        <v>3.131880025080003</v>
       </c>
       <c r="C11">
-        <v>0.6028182053798463</v>
+        <v>0.9781477775260036</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6.482657981707588</v>
+        <v>3.140376380126872</v>
       </c>
       <c r="C12">
-        <v>0.6908072102324099</v>
+        <v>0.9887375303317109</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>19.15733279388963</v>
+        <v>11.27515166422557</v>
       </c>
       <c r="C13">
-        <v>0.0383092284769574</v>
+        <v>0.5054969667310989</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>20.16896311481191</v>
+        <v>11.88504995992539</v>
       </c>
       <c r="C14">
-        <v>0.04307662034984563</v>
+        <v>0.5370916050924985</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>21.15173770380162</v>
+        <v>12.85551815777236</v>
       </c>
       <c r="C15">
-        <v>0.04820215441279042</v>
+        <v>0.5379305850167664</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>21.21532431333673</v>
+        <v>12.85808870977369</v>
       </c>
       <c r="C16">
-        <v>0.06877749476080593</v>
+        <v>0.6132581891050938</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>24.50215202108555</v>
+        <v>17.68687156230026</v>
       </c>
       <c r="C17">
-        <v>0.03981238162105645</v>
+        <v>0.3425491660229216</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>26.02566394303619</v>
+        <v>18.46456378802141</v>
       </c>
       <c r="C18">
-        <v>0.03775378836575355</v>
+        <v>0.3601160881731882</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>26.25878292796439</v>
+        <v>18.50688147173011</v>
       </c>
       <c r="C19">
-        <v>0.05049399422074204</v>
+        <v>0.4227601989414004</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>27.10994552747975</v>
+        <v>19.78377429742999</v>
       </c>
       <c r="C20">
-        <v>0.05647494979333935</v>
+        <v>0.4076933280242235</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>27.63606994865778</v>
+        <v>20.09515528229862</v>
       </c>
       <c r="C21">
-        <v>0.06781374178930935</v>
+        <v>0.451991612720009</v>
       </c>
     </row>
   </sheetData>
